--- a/results/maps_on_reasoning_models/summary_results.xlsx
+++ b/results/maps_on_reasoning_models/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>google/gemini-2.5-flash-preview-05-20</t>
+          <t>gemini-2.5-flash-preview-05-20</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -566,22 +566,22 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M2" t="n">
         <v>30</v>
@@ -593,22 +593,22 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -624,32 +624,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>o4-mini-2025-04-16</t>
+          <t>gemini-2.5-pro-preview-05-06</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L3" t="n">
         <v>27</v>
@@ -661,25 +661,96 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="U3" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AIME</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AIME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o4-mini-2025-04-16</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/results/maps_on_reasoning_models/summary_results.xlsx
+++ b/results/maps_on_reasoning_models/summary_results.xlsx
@@ -1,37 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB698ECD-962B-487C-AB0F-F57A56B000F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>benchmark_name</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>base_score</t>
+  </si>
+  <si>
+    <t>cot_score</t>
+  </si>
+  <si>
+    <t>trad_attempted</t>
+  </si>
+  <si>
+    <t>trad_success</t>
+  </si>
+  <si>
+    <t>reflection_layer_1_score</t>
+  </si>
+  <si>
+    <t>reflection_layer_2_score</t>
+  </si>
+  <si>
+    <t>reflection_layer_3_score</t>
+  </si>
+  <si>
+    <t>score_up_to_layer_1</t>
+  </si>
+  <si>
+    <t>score_up_to_layer_3</t>
+  </si>
+  <si>
+    <t>total_questions</t>
+  </si>
+  <si>
+    <t>base_accuracy</t>
+  </si>
+  <si>
+    <t>cot_accuracy</t>
+  </si>
+  <si>
+    <t>traditional_reflection_accuracy</t>
+  </si>
+  <si>
+    <t>reflection_layer_1_accuracy</t>
+  </si>
+  <si>
+    <t>reflection_layer_2_accuracy</t>
+  </si>
+  <si>
+    <t>reflection_layer_3_accuracy</t>
+  </si>
+  <si>
+    <t>score_up_to_layer_1_accuracy</t>
+  </si>
+  <si>
+    <t>score_up_to_layer_3_accuracy</t>
+  </si>
+  <si>
+    <t>AIME</t>
+  </si>
+  <si>
+    <t>gemini-2.5-flash-preview-05-20</t>
+  </si>
+  <si>
+    <t>gemini-2.5-pro-preview-05-06</t>
+  </si>
+  <si>
+    <t>o4-mini-2025-04-16</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +135,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,337 +460,471 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>benchmark_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>base_score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cot_score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>trad_attempted</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>trad_success</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>reflection_layer_1_score</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>reflection_layer_2_score</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reflection_layer_3_score</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>score_up_to_layer_1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>score_up_to_layer_3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>total_questions</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>base_accuracy</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>cot_accuracy</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>traditional_reflection_accuracy</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>reflection_layer_1_accuracy</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>reflection_layer_2_accuracy</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>reflection_layer_3_accuracy</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>score_up_to_layer_1_accuracy</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>score_up_to_layer_3_accuracy</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AIME</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AIME</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>gemini-2.5-flash-preview-05-20</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>22</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>24</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>30</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P2">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="U2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AIME</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AIME</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gemini-2.5-pro-preview-05-06</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>27</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>27</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>27</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>30</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.9</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>0.9</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.9</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AIME</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AIME</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>o4-mini-2025-04-16</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>26</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>26</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>0.8666666666666667</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="Q4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U4">
         <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>86</v>
+      </c>
+      <c r="L5" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>86</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>86</v>
+      </c>
+      <c r="L6" s="2">
+        <v>88</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" s="2">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/results/maps_on_reasoning_models/summary_results.xlsx
+++ b/results/maps_on_reasoning_models/summary_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB698ECD-962B-487C-AB0F-F57A56B000F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9792B-A01E-47F9-AFF2-A0C09FEFD1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>dataset</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>MATH</t>
+  </si>
+  <si>
+    <t>gsm8-std</t>
+  </si>
+  <si>
+    <t>GSM8K</t>
   </si>
 </sst>
 </file>
@@ -153,11 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,198 +740,328 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>84</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>86</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>86</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>88</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>100</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>0.84</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>0.86</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>0.02</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>0.01</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="3">
         <v>0.01</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3">
         <v>0.86</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>84</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>86</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>86</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>88</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0.84</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>0.86</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>0.02</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>0.01</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>0.01</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>0.86</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6">
         <v>0.88</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>76</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>82</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>81</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>82</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>100</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>0.76</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>0.82</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>0.05</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>0.01</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>0.81</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>98</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>97</v>
+      </c>
+      <c r="L8" s="2">
+        <v>98</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>97</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>98</v>
+      </c>
+      <c r="L9" s="2">
+        <v>99</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/results/maps_on_reasoning_models/summary_results.xlsx
+++ b/results/maps_on_reasoning_models/summary_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9792B-A01E-47F9-AFF2-A0C09FEFD1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F179D46-EE1A-4CC8-9C1F-BA22FC2C6931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,12 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -470,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,68 +609,68 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>27</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
         <v>30</v>
       </c>
-      <c r="G3">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>27</v>
-      </c>
-      <c r="L3">
-        <v>27</v>
-      </c>
-      <c r="M3">
+      <c r="G3" s="2">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
         <v>30</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.9</v>
-      </c>
-      <c r="P3">
-        <v>0.9</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.9</v>
-      </c>
-      <c r="U3">
-        <v>0.9</v>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -740,67 +739,67 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>84</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>86</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>86</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>88</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0.84</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5">
         <v>0.86</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5">
         <v>0.02</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5">
         <v>0.01</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5">
         <v>0.01</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5">
         <v>0.86</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5">
         <v>0.88</v>
       </c>
     </row>
@@ -935,132 +934,132 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>96</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>98</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>97</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>98</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0.96</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>0.98</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>0.01</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>0.01</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>0.97</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8">
         <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>96</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>97</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>98</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>99</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>100</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0.96</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>0.97</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <v>0.02</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9">
         <v>0.01</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0.98</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9">
         <v>0.99</v>
       </c>
     </row>
